--- a/biology/Zoologie/Hemidactylus_flaviviridis/Hemidactylus_flaviviridis.xlsx
+++ b/biology/Zoologie/Hemidactylus_flaviviridis/Hemidactylus_flaviviridis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus flaviviridis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus flaviviridis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Égypte, au Soudan, en Érythrée, en Éthiopie, en Somalie, au Yémen, en Oman, aux Émirats arabes unis, en Arabie saoudite, au Koweït, en Irak, en Iran, en Afghanistan, au Pakistan, en Inde et au Népal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Égypte, au Soudan, en Érythrée, en Éthiopie, en Somalie, au Yémen, en Oman, aux Émirats arabes unis, en Arabie saoudite, au Koweït, en Irak, en Iran, en Afghanistan, au Pakistan, en Inde et au Népal.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rüppell, 1835 : Neue Wirbelthiere zu der Fauna von Abyssinien gehörig, entdeckt und beschrieben. Amphibien. S. Schmerber, Frankfurt am Main.</t>
         </is>
